--- a/data/wn18/implication_stats_train.xlsx
+++ b/data/wn18/implication_stats_train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayansh/Documents/Workspace/Python/KGE_Pattern/data/wn18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0169ABA7-3DEA-0646-8BA2-7CB224864CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAD036B-257C-534A-87B1-E6A5A8F114D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>_derivationally_related_form</t>
   </si>
@@ -67,7 +67,10 @@
     <t>_instance_hyponym</t>
   </si>
   <si>
-    <t>Number of occurances per implication relation in the train set</t>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -472,15 +475,20 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
